--- a/data/trans_orig/P23_1_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>412443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>381938</v>
+        <v>378225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>446401</v>
+        <v>446842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3656422858187085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.33859830587943</v>
+        <v>0.3353071423760715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.395746194721448</v>
+        <v>0.3961379578943374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>700</v>
@@ -763,19 +763,19 @@
         <v>750895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>713418</v>
+        <v>717622</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>785337</v>
+        <v>784968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5966814000407321</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5669010800868822</v>
+        <v>0.5702419037285368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6240500331063042</v>
+        <v>0.6237570274792856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1096</v>
@@ -784,19 +784,19 @@
         <v>1163338</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1111823</v>
+        <v>1115557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1209429</v>
+        <v>1214857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4874766836839372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4658900723282904</v>
+        <v>0.4674549390224111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5067902603507177</v>
+        <v>0.5090647388044073</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>223826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197471</v>
+        <v>196884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251371</v>
+        <v>249852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1984274548592631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.175063009911378</v>
+        <v>0.1745425897030035</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2228469511405059</v>
+        <v>0.2215007340735081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -834,19 +834,19 @@
         <v>109172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90259</v>
+        <v>89617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132529</v>
+        <v>129130</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08675116551898197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07172247148895243</v>
+        <v>0.07121201287815676</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.105311479055274</v>
+        <v>0.1026102315214086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -855,19 +855,19 @@
         <v>332998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>297796</v>
+        <v>300811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>368430</v>
+        <v>369092</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1395369353322486</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1247863892834155</v>
+        <v>0.1260497201129434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1543840870648794</v>
+        <v>0.1546616618313814</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>29989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20316</v>
+        <v>20803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42289</v>
+        <v>43293</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0265859751077244</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01801062641785157</v>
+        <v>0.01844212869354504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0374905740133392</v>
+        <v>0.03838040571694049</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -905,19 +905,19 @@
         <v>25438</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17132</v>
+        <v>16759</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36528</v>
+        <v>36852</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02021356929727398</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01361320278492895</v>
+        <v>0.0133172300899968</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02902640618457806</v>
+        <v>0.02928371587267949</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -926,19 +926,19 @@
         <v>55427</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41339</v>
+        <v>42203</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72153</v>
+        <v>71175</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02322559940907526</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01732258125028523</v>
+        <v>0.0176845334246902</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03023437495562165</v>
+        <v>0.02982485678620511</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>461739</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>427632</v>
+        <v>428246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>492724</v>
+        <v>495477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.409344284214304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.379106983969291</v>
+        <v>0.3796518200558249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4368134830123294</v>
+        <v>0.4392541339372831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>360</v>
@@ -976,19 +976,19 @@
         <v>372947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340405</v>
+        <v>340522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>408770</v>
+        <v>402670</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.296353865143012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2704951736198933</v>
+        <v>0.2705883348160281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3248194344677637</v>
+        <v>0.3199726266354663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>786</v>
@@ -997,19 +997,19 @@
         <v>834686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>790364</v>
+        <v>786783</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>889310</v>
+        <v>880625</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3497607815747389</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3311883687404041</v>
+        <v>0.3296878827355615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3726498344362861</v>
+        <v>0.369010715407996</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>406822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>376625</v>
+        <v>379084</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>436875</v>
+        <v>436592</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4476354322079646</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4144082023258041</v>
+        <v>0.4171143326711408</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4807035077626979</v>
+        <v>0.480391232647976</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>591</v>
@@ -1122,19 +1122,19 @@
         <v>634415</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>602993</v>
+        <v>599747</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>662840</v>
+        <v>660616</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6323689122499969</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6010490941312928</v>
+        <v>0.5978135711846646</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6607029864880642</v>
+        <v>0.658485776925395</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>987</v>
@@ -1143,19 +1143,19 @@
         <v>1041237</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1001267</v>
+        <v>995244</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1083755</v>
+        <v>1084861</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.544562875548779</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5236587717756725</v>
+        <v>0.5205088109805684</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5667996131507538</v>
+        <v>0.5673779065683399</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>176962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154128</v>
+        <v>155915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203558</v>
+        <v>204602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1947147510690312</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.169590349320201</v>
+        <v>0.171556935172461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2239794692736617</v>
+        <v>0.2251275402852766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -1193,19 +1193,19 @@
         <v>106983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88124</v>
+        <v>89008</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128308</v>
+        <v>129650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1066377900697038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08783954017667239</v>
+        <v>0.08872062349541074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1278945494938035</v>
+        <v>0.1292318914841492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>280</v>
@@ -1214,19 +1214,19 @@
         <v>283944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>252655</v>
+        <v>255205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>313823</v>
+        <v>315940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1485018250474405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1321378468040613</v>
+        <v>0.1334711589539975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1641283882993839</v>
+        <v>0.1652356136852703</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>23389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15776</v>
+        <v>14948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35704</v>
+        <v>33570</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02573543836040637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01735820688347585</v>
+        <v>0.01644738436969153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03928578724468921</v>
+        <v>0.03693748659482764</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1264,19 +1264,19 @@
         <v>23229</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15202</v>
+        <v>15406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34989</v>
+        <v>33595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02315374092232325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.015152755329429</v>
+        <v>0.01535598454120064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03487586763379462</v>
+        <v>0.03348675477018356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -1285,19 +1285,19 @@
         <v>46618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35302</v>
+        <v>34623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61822</v>
+        <v>63250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02438085265078844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01846290827649159</v>
+        <v>0.01810768181675931</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03233245938529489</v>
+        <v>0.03307934969823402</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>301652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>274556</v>
+        <v>273867</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>330845</v>
+        <v>329655</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3319143783625979</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3021001166762791</v>
+        <v>0.3013422397655954</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3640357698090405</v>
+        <v>0.3627261572469756</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -1335,19 +1335,19 @@
         <v>238609</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>215840</v>
+        <v>212249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>267558</v>
+        <v>265297</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2378395567579761</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2151438170917438</v>
+        <v>0.2115643883994488</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.266694764306273</v>
+        <v>0.2644414407817718</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>516</v>
@@ -1356,19 +1356,19 @@
         <v>540261</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>500468</v>
+        <v>501299</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>577616</v>
+        <v>579503</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.282554446752992</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2617427147459595</v>
+        <v>0.2621774759580348</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3020906794544961</v>
+        <v>0.303078067799436</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>416930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>388158</v>
+        <v>387658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>447292</v>
+        <v>449204</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5073229166078929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4723136616349291</v>
+        <v>0.4717050867423299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5442685931005538</v>
+        <v>0.5465950562500951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>476</v>
@@ -1481,19 +1481,19 @@
         <v>509592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482738</v>
+        <v>480146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>535969</v>
+        <v>536618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6618330733416911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6269570925129783</v>
+        <v>0.6235904827401041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6960911444052944</v>
+        <v>0.6969330930952092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>880</v>
@@ -1502,19 +1502,19 @@
         <v>926521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>888292</v>
+        <v>887689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>965530</v>
+        <v>966395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5820613994707364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5580448709440039</v>
+        <v>0.5576661619550397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6065678694397035</v>
+        <v>0.6071108847623017</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>181555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>156223</v>
+        <v>158087</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>205604</v>
+        <v>207366</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2209171331228999</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1900928728554032</v>
+        <v>0.1923618948980116</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2501807860017557</v>
+        <v>0.2523246480226394</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>91</v>
@@ -1552,19 +1552,19 @@
         <v>96041</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>78713</v>
+        <v>79459</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>116742</v>
+        <v>116648</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1247333148415529</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1022289204171384</v>
+        <v>0.1031979165948889</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1516187245070674</v>
+        <v>0.1514967085922627</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>265</v>
@@ -1573,19 +1573,19 @@
         <v>277596</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>246704</v>
+        <v>247537</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>307470</v>
+        <v>308009</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1743918249731682</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1549847206958488</v>
+        <v>0.1555082137537241</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1931593883422497</v>
+        <v>0.1934983896551675</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>19285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12009</v>
+        <v>11743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31836</v>
+        <v>30306</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02346553048541084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01461212758671293</v>
+        <v>0.01428875077574139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03873818859585055</v>
+        <v>0.03687614331195656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1623,19 +1623,19 @@
         <v>17156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10223</v>
+        <v>9888</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27677</v>
+        <v>27691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02228153102938456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01327718588413358</v>
+        <v>0.01284217056264178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03594577686016534</v>
+        <v>0.03596342148633233</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1644,19 +1644,19 @@
         <v>36441</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26371</v>
+        <v>26176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51298</v>
+        <v>51325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02289281523532994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0165667562988643</v>
+        <v>0.01644418730357416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03222626313737515</v>
+        <v>0.03224346288289485</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>204054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182254</v>
+        <v>179588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>231686</v>
+        <v>231656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2482944197837963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2217680169587425</v>
+        <v>0.2185241509850165</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2819167134133438</v>
+        <v>0.2818807270138151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -1694,19 +1694,19 @@
         <v>147181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126083</v>
+        <v>125421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168725</v>
+        <v>171512</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1911520807873714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1637498911049088</v>
+        <v>0.1628912598711434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2191325274707104</v>
+        <v>0.2227516990589671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>333</v>
@@ -1715,19 +1715,19 @@
         <v>351235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319263</v>
+        <v>319826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>387673</v>
+        <v>387525</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2206539603207655</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2005680972136874</v>
+        <v>0.2009216781959503</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2435447216546123</v>
+        <v>0.2434518902497448</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>265158</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>241511</v>
+        <v>243452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>287658</v>
+        <v>288861</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5233022177521718</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4766336098744658</v>
+        <v>0.4804652999447045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5677075340096616</v>
+        <v>0.5700814296394847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>300</v>
@@ -1840,19 +1840,19 @@
         <v>326158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>304318</v>
+        <v>303243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>348716</v>
+        <v>346329</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6660392237403835</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6214397291683099</v>
+        <v>0.6192441549067954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7121041072374232</v>
+        <v>0.7072297721528835</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>547</v>
@@ -1861,19 +1861,19 @@
         <v>591315</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>556653</v>
+        <v>560812</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>622966</v>
+        <v>623717</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5934528308661461</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5586650327286833</v>
+        <v>0.5628395552368479</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6252175588894217</v>
+        <v>0.6259716532461511</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>114567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94382</v>
+        <v>93580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133168</v>
+        <v>132738</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2261033557777812</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.186268335658019</v>
+        <v>0.1846853908029147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2628140964652694</v>
+        <v>0.2619652472259124</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -1911,19 +1911,19 @@
         <v>71999</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56346</v>
+        <v>56164</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88950</v>
+        <v>88474</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.147027791305581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1150621980861398</v>
+        <v>0.1146913167325126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1816416569366388</v>
+        <v>0.1806700212349122</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>174</v>
@@ -1932,19 +1932,19 @@
         <v>186566</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>164091</v>
+        <v>160715</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>212745</v>
+        <v>211297</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.187240278248212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1646840367673201</v>
+        <v>0.1612962191753466</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.213514450897585</v>
+        <v>0.212060913574681</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>13083</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6931</v>
+        <v>7455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22387</v>
+        <v>23692</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02581914033687761</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01367931761373627</v>
+        <v>0.01471296041500546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04418098466407989</v>
+        <v>0.04675800557431922</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1982,19 +1982,19 @@
         <v>8581</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4032</v>
+        <v>3932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17279</v>
+        <v>17176</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01752337067771794</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008233886474751541</v>
+        <v>0.008028994469870257</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03528595742221841</v>
+        <v>0.0350747811944831</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -2003,19 +2003,19 @@
         <v>21664</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14008</v>
+        <v>13483</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34076</v>
+        <v>32907</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02174203837012893</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01405821271696759</v>
+        <v>0.01353205225183149</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03419958099079912</v>
+        <v>0.03302623926757544</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>113894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95761</v>
+        <v>97261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134670</v>
+        <v>134505</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2247752861331695</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1889895522862782</v>
+        <v>0.1919502883601329</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2657771616436453</v>
+        <v>0.2654520505944223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -2053,19 +2053,19 @@
         <v>82960</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66353</v>
+        <v>68141</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101661</v>
+        <v>100398</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1694096142763176</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1354968767072736</v>
+        <v>0.1391492086621514</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2075996649528939</v>
+        <v>0.2050195517859602</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>185</v>
@@ -2074,19 +2074,19 @@
         <v>196853</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>170589</v>
+        <v>173761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222571</v>
+        <v>222248</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.197564852515513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1712056279155575</v>
+        <v>0.1743891849797438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2233753546492108</v>
+        <v>0.2230509625967566</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>1501353</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1442753</v>
+        <v>1439239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1558577</v>
+        <v>1556938</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4461214485417175</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4287087135040377</v>
+        <v>0.4276643762423649</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4631253649464556</v>
+        <v>0.4626384507314151</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2067</v>
@@ -2199,19 +2199,19 @@
         <v>2221059</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2166033</v>
+        <v>2162274</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2283077</v>
+        <v>2273971</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6307399295643504</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6151135395994122</v>
+        <v>0.6140463254217207</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6483521657064812</v>
+        <v>0.6457661164956238</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3510</v>
@@ -2220,19 +2220,19 @@
         <v>3722412</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3634863</v>
+        <v>3631956</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3812742</v>
+        <v>3810042</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5405218208394292</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5278091010226793</v>
+        <v>0.5273869667490061</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5536385157813912</v>
+        <v>0.5532463406244642</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>696909</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>652974</v>
+        <v>652282</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>748966</v>
+        <v>743422</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.207083842355846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1940288947375951</v>
+        <v>0.1938232729864128</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2225525684764522</v>
+        <v>0.2209051667424957</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>362</v>
@@ -2270,19 +2270,19 @@
         <v>384195</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>347157</v>
+        <v>350444</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>423892</v>
+        <v>424426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1091043235794684</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09858624738728144</v>
+        <v>0.09951981138984207</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1203775849065741</v>
+        <v>0.1205292030166798</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1037</v>
@@ -2291,19 +2291,19 @@
         <v>1081104</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1018454</v>
+        <v>1025014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1141059</v>
+        <v>1148006</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1569842911147827</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1478871098814675</v>
+        <v>0.1488396183214004</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1656902333508992</v>
+        <v>0.1666990116453083</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>85745</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69759</v>
+        <v>68907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109177</v>
+        <v>106281</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02547880883974388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02072851763875688</v>
+        <v>0.02047545905593197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03244147442236225</v>
+        <v>0.03158095318455074</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2341,19 +2341,19 @@
         <v>74404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58204</v>
+        <v>59063</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93662</v>
+        <v>91326</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02112928722961862</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01652886607681224</v>
+        <v>0.01677290178230145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0265982326489502</v>
+        <v>0.02593502405225062</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -2362,19 +2362,19 @@
         <v>160149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>136358</v>
+        <v>135168</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186114</v>
+        <v>185202</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02325478198696943</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0198001598643961</v>
+        <v>0.01962742289099679</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02702514313346878</v>
+        <v>0.02689275354926345</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>1081339</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1027565</v>
+        <v>1028061</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1140657</v>
+        <v>1137721</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3213159002626926</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3053369896113429</v>
+        <v>0.305484610241517</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3389420094918841</v>
+        <v>0.3380696344176265</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>816</v>
@@ -2412,19 +2412,19 @@
         <v>841697</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>790280</v>
+        <v>793917</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>890389</v>
+        <v>893756</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2390264596265625</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2244250261954907</v>
+        <v>0.2254579011234502</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2528541016782109</v>
+        <v>0.2538103606794311</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1820</v>
@@ -2433,19 +2433,19 @@
         <v>1923036</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1846462</v>
+        <v>1845264</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1997816</v>
+        <v>1997453</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2792391060588187</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.268119964559743</v>
+        <v>0.2679460977381562</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2900977153153911</v>
+        <v>0.2900449692955649</v>
       </c>
     </row>
     <row r="28">
@@ -2777,19 +2777,19 @@
         <v>221721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197971</v>
+        <v>197811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>249464</v>
+        <v>245264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.444564155914027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3969434456405064</v>
+        <v>0.3966230044256391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5001892147967713</v>
+        <v>0.4917680337915419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>601</v>
@@ -2798,19 +2798,19 @@
         <v>427183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>405264</v>
+        <v>405591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>444750</v>
+        <v>446393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6850500070302494</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6498991194691693</v>
+        <v>0.6504234756764569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7132206691229089</v>
+        <v>0.7158549413345878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>783</v>
@@ -2819,19 +2819,19 @@
         <v>648906</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>616211</v>
+        <v>617281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>678399</v>
+        <v>680415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5781822719221138</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5490507050429324</v>
+        <v>0.5500042385541644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6044616511985241</v>
+        <v>0.6062575133839638</v>
       </c>
     </row>
     <row r="5">
@@ -2848,19 +2848,19 @@
         <v>88597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71317</v>
+        <v>73503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105171</v>
+        <v>107510</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1776422769030569</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1429947587921669</v>
+        <v>0.1473768889000342</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2108729694421842</v>
+        <v>0.2155637044420409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -2869,19 +2869,19 @@
         <v>51073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40413</v>
+        <v>39601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63914</v>
+        <v>62844</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08190343058409648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06480777934270372</v>
+        <v>0.06350592511159675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1024944678005515</v>
+        <v>0.1007790957595925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>164</v>
@@ -2890,19 +2890,19 @@
         <v>139671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118319</v>
+        <v>119806</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160152</v>
+        <v>164267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1244481109487992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1054239396173358</v>
+        <v>0.1067488988529933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1426975719575511</v>
+        <v>0.1463635731395753</v>
       </c>
     </row>
     <row r="6">
@@ -2919,19 +2919,19 @@
         <v>9879</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4277</v>
+        <v>4468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18502</v>
+        <v>19655</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01980790346517547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008575190690365565</v>
+        <v>0.008958032232273736</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03709736238567186</v>
+        <v>0.03940979470122321</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -2940,19 +2940,19 @@
         <v>13149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7276</v>
+        <v>7688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20244</v>
+        <v>20238</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02108564045708711</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01166797385778523</v>
+        <v>0.01232854001414745</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0324646502192797</v>
+        <v>0.03245391375962142</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -2961,19 +2961,19 @@
         <v>23028</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14496</v>
+        <v>14959</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33776</v>
+        <v>34874</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02051783633158167</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0129157539580504</v>
+        <v>0.01332897480806879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03009466532635707</v>
+        <v>0.03107350185029268</v>
       </c>
     </row>
     <row r="7">
@@ -2990,19 +2990,19 @@
         <v>178541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154594</v>
+        <v>155182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>201585</v>
+        <v>203848</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3579856637177406</v>
+        <v>0.3579856637177407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3099694302160968</v>
+        <v>0.3111480453556207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.404189163059253</v>
+        <v>0.4087272119138066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -3011,19 +3011,19 @@
         <v>132175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114497</v>
+        <v>113999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151276</v>
+        <v>150907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2119609219285669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1836122035167036</v>
+        <v>0.1828134800540107</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2425929630773831</v>
+        <v>0.2420014040636638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>344</v>
@@ -3032,19 +3032,19 @@
         <v>310716</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283320</v>
+        <v>280849</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>342752</v>
+        <v>341229</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2768517807975053</v>
+        <v>0.2768517807975054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.252441236887656</v>
+        <v>0.2502396224308641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3053963825763687</v>
+        <v>0.3040388706199733</v>
       </c>
     </row>
     <row r="8">
@@ -3136,19 +3136,19 @@
         <v>513620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>482349</v>
+        <v>478145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>553347</v>
+        <v>551367</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5349449446640829</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5023753705404997</v>
+        <v>0.4979971591663854</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.576321219926496</v>
+        <v>0.5742591640753126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1193</v>
@@ -3157,19 +3157,19 @@
         <v>808511</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>780017</v>
+        <v>780155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>832810</v>
+        <v>836734</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7245702147989594</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6990346829136126</v>
+        <v>0.6991585200278352</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7463464078888938</v>
+        <v>0.7498631165663308</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1660</v>
@@ -3178,19 +3178,19 @@
         <v>1322131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1280922</v>
+        <v>1278140</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1364308</v>
+        <v>1368305</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6368691523527243</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6170187644496531</v>
+        <v>0.6156786267650465</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6571856394583541</v>
+        <v>0.6591107258237787</v>
       </c>
     </row>
     <row r="10">
@@ -3207,19 +3207,19 @@
         <v>194317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172933</v>
+        <v>171700</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221652</v>
+        <v>220765</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2023848903366471</v>
+        <v>0.2023848903366472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1801129029301154</v>
+        <v>0.1788285087904409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2308548041234763</v>
+        <v>0.2299310724991213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -3228,19 +3228,19 @@
         <v>87757</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73427</v>
+        <v>73559</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104081</v>
+        <v>104853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07864571574982106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06580381784863949</v>
+        <v>0.06592190465709913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09327535050949783</v>
+        <v>0.09396666462257466</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>351</v>
@@ -3249,19 +3249,19 @@
         <v>282074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>253671</v>
+        <v>255731</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>313673</v>
+        <v>312524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1358746761608779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1221930023607746</v>
+        <v>0.1231851638769541</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1510960568451213</v>
+        <v>0.1505424704994598</v>
       </c>
     </row>
     <row r="11">
@@ -3278,19 +3278,19 @@
         <v>13193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5149</v>
+        <v>5588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27895</v>
+        <v>28029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01374044293404553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005362748482806557</v>
+        <v>0.005820346923924797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02905314035644383</v>
+        <v>0.02919306337286926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -3299,19 +3299,19 @@
         <v>19185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12689</v>
+        <v>13194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27992</v>
+        <v>29060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01719288935106675</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01137204021272941</v>
+        <v>0.01182385215151422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02508561382261141</v>
+        <v>0.02604317482457387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -3320,19 +3320,19 @@
         <v>32377</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22406</v>
+        <v>22778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49259</v>
+        <v>48109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01559614426220758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01079306636798121</v>
+        <v>0.01097203173781602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02372781847527216</v>
+        <v>0.023174208495929</v>
       </c>
     </row>
     <row r="12">
@@ -3349,19 +3349,19 @@
         <v>239007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>209592</v>
+        <v>208167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>270719</v>
+        <v>270550</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2489297220652246</v>
+        <v>0.2489297220652245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2182939365381837</v>
+        <v>0.2168098472839971</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2819585071544365</v>
+        <v>0.2817824060240119</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>262</v>
@@ -3370,19 +3370,19 @@
         <v>200397</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>177876</v>
+        <v>177382</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>222027</v>
+        <v>225326</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1795911801001527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1594084122050141</v>
+        <v>0.1589659308952529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1989760694452345</v>
+        <v>0.2019327861932439</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>472</v>
@@ -3391,19 +3391,19 @@
         <v>439403</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>402733</v>
+        <v>405618</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>475096</v>
+        <v>477719</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2116600272241901</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1939959238068663</v>
+        <v>0.1953856212377707</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2288529516046816</v>
+        <v>0.2301165484081053</v>
       </c>
     </row>
     <row r="13">
@@ -3495,19 +3495,19 @@
         <v>633754</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>598485</v>
+        <v>600946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>665981</v>
+        <v>669973</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6056064487109079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5719030907050282</v>
+        <v>0.5742548486792248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6364015085055437</v>
+        <v>0.6402161902956289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1125</v>
@@ -3516,19 +3516,19 @@
         <v>774567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>747707</v>
+        <v>749580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>800206</v>
+        <v>798622</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7393430708483226</v>
+        <v>0.7393430708483228</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7137043549765162</v>
+        <v>0.7154924200793956</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7638158502997369</v>
+        <v>0.7623041797805192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1729</v>
@@ -3537,19 +3537,19 @@
         <v>1408321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1367752</v>
+        <v>1365219</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1451014</v>
+        <v>1450130</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6725118755293592</v>
+        <v>0.6725118755293594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6531387385011052</v>
+        <v>0.6519291464855044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6928988983229806</v>
+        <v>0.6924764617075506</v>
       </c>
     </row>
     <row r="15">
@@ -3566,19 +3566,19 @@
         <v>166354</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>145694</v>
+        <v>143343</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>191164</v>
+        <v>190046</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.158965281559635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.139223166212914</v>
+        <v>0.1369767249576094</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1826735328164419</v>
+        <v>0.1816056025533028</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>134</v>
@@ -3587,19 +3587,19 @@
         <v>92402</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>77767</v>
+        <v>78562</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>110147</v>
+        <v>108819</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08820021641622726</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07423076280908457</v>
+        <v>0.07498897434223996</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1051376553970268</v>
+        <v>0.1038699709240632</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>335</v>
@@ -3608,19 +3608,19 @@
         <v>258756</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>232455</v>
+        <v>231412</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>287904</v>
+        <v>286890</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1235631096519998</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.111003793537484</v>
+        <v>0.1105053623701333</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1374819525953159</v>
+        <v>0.1369978564405469</v>
       </c>
     </row>
     <row r="16">
@@ -3637,19 +3637,19 @@
         <v>14987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7039</v>
+        <v>7468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27943</v>
+        <v>27999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01432138168864683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006726452370591563</v>
+        <v>0.007136084443588186</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02670190780581647</v>
+        <v>0.02675580016978742</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3658,19 +3658,19 @@
         <v>20206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13490</v>
+        <v>13635</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31055</v>
+        <v>30094</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01928682499647301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01287643476870451</v>
+        <v>0.01301514042095581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02964321919834759</v>
+        <v>0.02872567104147774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -3679,19 +3679,19 @@
         <v>35193</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24320</v>
+        <v>24216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50052</v>
+        <v>52030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01680548139554373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01161353313425066</v>
+        <v>0.01156373878615891</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02390113551900029</v>
+        <v>0.02484557378430905</v>
       </c>
     </row>
     <row r="17">
@@ -3708,19 +3708,19 @@
         <v>231384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204909</v>
+        <v>202581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261299</v>
+        <v>262390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2211068880408103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1958083343853484</v>
+        <v>0.1935838932599893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2496932338726193</v>
+        <v>0.2507356723520086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>228</v>
@@ -3729,19 +3729,19 @@
         <v>160467</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140897</v>
+        <v>138743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183088</v>
+        <v>180456</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.153169887738977</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1344892361493502</v>
+        <v>0.1324334337584921</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1747616609218066</v>
+        <v>0.1722499128513994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>442</v>
@@ -3750,19 +3750,19 @@
         <v>391851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>359033</v>
+        <v>356754</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427142</v>
+        <v>429045</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1871195334230972</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1714478837883324</v>
+        <v>0.1703597319008708</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2039718496175332</v>
+        <v>0.2048805822736634</v>
       </c>
     </row>
     <row r="18">
@@ -3854,19 +3854,19 @@
         <v>562216</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>528542</v>
+        <v>531289</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>595381</v>
+        <v>594994</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.576758075299819</v>
+        <v>0.5767580752998188</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5422130133074503</v>
+        <v>0.5450307231686635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6107810126343171</v>
+        <v>0.6103834602652561</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>917</v>
@@ -3875,19 +3875,19 @@
         <v>616616</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>591628</v>
+        <v>591405</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>644545</v>
+        <v>641889</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.68151726979233</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6538992045117339</v>
+        <v>0.6536523775160039</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.712385933664478</v>
+        <v>0.7094503457919229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1444</v>
@@ -3896,19 +3896,19 @@
         <v>1178833</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1134284</v>
+        <v>1136590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1222740</v>
+        <v>1221045</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6271864280505004</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6034843285997503</v>
+        <v>0.604711542507679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6505467205816426</v>
+        <v>0.6496445103820874</v>
       </c>
     </row>
     <row r="20">
@@ -3925,19 +3925,19 @@
         <v>208961</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183039</v>
+        <v>182691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236311</v>
+        <v>234118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2143654523192323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1877733036140449</v>
+        <v>0.1874167230417259</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2424236467335965</v>
+        <v>0.2401739776198437</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -3946,19 +3946,19 @@
         <v>130777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113224</v>
+        <v>113730</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151738</v>
+        <v>149585</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1445420549797782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1251411071105486</v>
+        <v>0.1257001319654258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1677083833281609</v>
+        <v>0.1653291049484279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>426</v>
@@ -3967,19 +3967,19 @@
         <v>339738</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>308574</v>
+        <v>310932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>373044</v>
+        <v>370152</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1807542840743609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.164173762149343</v>
+        <v>0.1654282751957011</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1984744566418905</v>
+        <v>0.1969355456290938</v>
       </c>
     </row>
     <row r="21">
@@ -3996,19 +3996,19 @@
         <v>40725</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27131</v>
+        <v>26009</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59869</v>
+        <v>61640</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04177814345077155</v>
+        <v>0.04177814345077156</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02783288048036419</v>
+        <v>0.02668172943021658</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06141701654284445</v>
+        <v>0.06323394734171589</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -4017,19 +4017,19 @@
         <v>24194</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16267</v>
+        <v>16113</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36056</v>
+        <v>37265</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02674055200463524</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01797885990367993</v>
+        <v>0.01780874671480925</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03985060487958042</v>
+        <v>0.04118693892447491</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -4038,19 +4038,19 @@
         <v>64919</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47684</v>
+        <v>47905</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>86895</v>
+        <v>85864</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0345394378685078</v>
+        <v>0.03453943786850779</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02536992696803902</v>
+        <v>0.02548739808249959</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04623165567192166</v>
+        <v>0.04568316902967995</v>
       </c>
     </row>
     <row r="22">
@@ -4067,19 +4067,19 @@
         <v>162885</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138269</v>
+        <v>138550</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190295</v>
+        <v>191230</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1670983289301773</v>
+        <v>0.1670983289301772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1418449495726835</v>
+        <v>0.1421332906594154</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1952175165766652</v>
+        <v>0.1961759289095383</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>180</v>
@@ -4088,19 +4088,19 @@
         <v>133182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114120</v>
+        <v>115663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153104</v>
+        <v>155155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1472001232232567</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1261310137292509</v>
+        <v>0.1278369535530086</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1692191874116134</v>
+        <v>0.1714857380532556</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>335</v>
@@ -4109,19 +4109,19 @@
         <v>296068</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>265034</v>
+        <v>264588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332826</v>
+        <v>329627</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1575198500066309</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1410086362034332</v>
+        <v>0.1407715367891521</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1770768438103752</v>
+        <v>0.1753746038737758</v>
       </c>
     </row>
     <row r="23">
@@ -4213,19 +4213,19 @@
         <v>1931313</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1871674</v>
+        <v>1869453</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1993349</v>
+        <v>1993062</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5549522435406962</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5378152435127469</v>
+        <v>0.5371770551155015</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5727779006947463</v>
+        <v>0.5726954155296394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3836</v>
@@ -4234,19 +4234,19 @@
         <v>2626878</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2580299</v>
+        <v>2579817</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2676644</v>
+        <v>2677468</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7115359642671787</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6989192653068843</v>
+        <v>0.6987888503227371</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7250160963822156</v>
+        <v>0.7252392751279976</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5616</v>
@@ -4255,19 +4255,19 @@
         <v>4558191</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4471216</v>
+        <v>4476707</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4642694</v>
+        <v>4643985</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6355550796424351</v>
+        <v>0.635555079642435</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6234280958690814</v>
+        <v>0.6241936939628149</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6473374833783943</v>
+        <v>0.6475174197112327</v>
       </c>
     </row>
     <row r="25">
@@ -4284,19 +4284,19 @@
         <v>658229</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>614691</v>
+        <v>614204</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>706893</v>
+        <v>705149</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1891384994067222</v>
+        <v>0.1891384994067221</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1766279622258969</v>
+        <v>0.176488290213265</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2031219086776201</v>
+        <v>0.2026207039223088</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>519</v>
@@ -4305,19 +4305,19 @@
         <v>362010</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>332322</v>
+        <v>331932</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>392174</v>
+        <v>393318</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09805667503010528</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09001531922737627</v>
+        <v>0.0899097272150477</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1062271952463133</v>
+        <v>0.1065370363245727</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1276</v>
@@ -4326,19 +4326,19 @@
         <v>1020239</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>967221</v>
+        <v>965490</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1075648</v>
+        <v>1079814</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1422533358149096</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1348609751234819</v>
+        <v>0.1346196128249406</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1499791715050358</v>
+        <v>0.1505599990919741</v>
       </c>
     </row>
     <row r="26">
@@ -4355,19 +4355,19 @@
         <v>78784</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58132</v>
+        <v>58783</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102742</v>
+        <v>106011</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02263801502170699</v>
+        <v>0.02263801502170698</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01670395783145347</v>
+        <v>0.01689085873059031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02952223773702244</v>
+        <v>0.03046174410226386</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -4376,19 +4376,19 @@
         <v>76733</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62577</v>
+        <v>62017</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94779</v>
+        <v>93887</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02078447850520262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01695003567432083</v>
+        <v>0.01679826817067933</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02567249261399813</v>
+        <v>0.02543086106978214</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>157</v>
@@ -4397,19 +4397,19 @@
         <v>155517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130294</v>
+        <v>129852</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>185140</v>
+        <v>184460</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02168389093169792</v>
+        <v>0.02168389093169791</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01816711195986339</v>
+        <v>0.01810547062466151</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0258143923053092</v>
+        <v>0.02571952649981509</v>
       </c>
     </row>
     <row r="27">
@@ -4426,19 +4426,19 @@
         <v>811817</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>758583</v>
+        <v>754711</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>868226</v>
+        <v>867975</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2332712420308746</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2179746856192254</v>
+        <v>0.216862087709069</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2494799801458305</v>
+        <v>0.2494077362734642</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>844</v>
@@ -4447,19 +4447,19 @@
         <v>626221</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>588416</v>
+        <v>588458</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>670351</v>
+        <v>671620</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1696228821975134</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1593829084694545</v>
+        <v>0.1593940808038698</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1815762828298455</v>
+        <v>0.1819201860089187</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1593</v>
@@ -4468,19 +4468,19 @@
         <v>1438038</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1367208</v>
+        <v>1372245</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1511224</v>
+        <v>1512547</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2005076936109574</v>
+        <v>0.2005076936109573</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.190631705144821</v>
+        <v>0.1913341082531499</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.210712144426725</v>
+        <v>0.2108965538369012</v>
       </c>
     </row>
     <row r="28">
